--- a/src/test/robotframework/publisher/Publicationmanagement/publicationdata/relatedPublications.xlsx
+++ b/src/test/robotframework/publisher/Publicationmanagement/publicationdata/relatedPublications.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="892">
   <si>
     <t xml:space="preserve">BibTeX Key</t>
   </si>
@@ -61,6 +61,9 @@
     <t xml:space="preserve">Abstract</t>
   </si>
   <si>
+    <t xml:space="preserve">analysisPackageIds (= Freitext 9)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Apolinarski.2013</t>
   </si>
   <si>
@@ -127,7 +130,7 @@
     <t xml:space="preserve">test de</t>
   </si>
   <si>
-    <t xml:space="preserve">test en</t>
+    <t xml:space="preserve">e</t>
   </si>
   <si>
     <t xml:space="preserve">stu-ssy20$</t>
@@ -263,6 +266,9 @@
   </si>
   <si>
     <t xml:space="preserve">Becker, Rolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ana-testanalysepaket$</t>
   </si>
   <si>
     <t xml:space="preserve">Becker.2013</t>
@@ -2917,17 +2923,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P200"/>
+  <dimension ref="A1:Q200"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q13" activeCellId="0" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="3.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="25.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="44.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="34.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25.45"/>
@@ -2980,6 +2986,9 @@
       <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="Q1" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -2995,34 +3004,34 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="P2" s="2"/>
     </row>
@@ -3040,34 +3049,34 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="P3" s="3"/>
     </row>
@@ -3085,41 +3094,41 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3136,31 +3145,31 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -3179,34 +3188,34 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -3220,31 +3229,31 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -3263,29 +3272,29 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -3304,29 +3313,29 @@
         <v>0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -3345,29 +3354,29 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -3386,36 +3395,36 @@
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -3429,23 +3438,23 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -3453,6 +3462,9 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
+      <c r="Q12" s="0" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
@@ -3468,23 +3480,23 @@
         <v>0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -3507,29 +3519,29 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -3548,23 +3560,23 @@
         <v>0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -3587,23 +3599,23 @@
         <v>0</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -3626,29 +3638,29 @@
         <v>0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -3667,37 +3679,37 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3714,31 +3726,31 @@
         <v>0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -3757,23 +3769,23 @@
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -3796,34 +3808,34 @@
         <v>0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P21" s="3"/>
     </row>
@@ -3841,31 +3853,31 @@
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -3884,29 +3896,29 @@
         <v>0</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -3926,18 +3938,18 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -3960,31 +3972,31 @@
         <v>0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -4003,29 +4015,29 @@
         <v>0</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -4044,29 +4056,29 @@
         <v>0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -4085,23 +4097,23 @@
         <v>0</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -4124,34 +4136,34 @@
         <v>0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P29" s="3"/>
     </row>
@@ -4169,29 +4181,29 @@
         <v>0</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -4210,34 +4222,34 @@
         <v>0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P31" s="3"/>
     </row>
@@ -4255,23 +4267,23 @@
         <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -4294,29 +4306,29 @@
         <v>0</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
@@ -4335,23 +4347,23 @@
         <v>0</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -4374,29 +4386,29 @@
         <v>0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -4415,31 +4427,31 @@
         <v>0</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -4458,34 +4470,34 @@
         <v>0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P37" s="3"/>
     </row>
@@ -4503,34 +4515,34 @@
         <v>0</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P38" s="2"/>
     </row>
@@ -4548,34 +4560,34 @@
         <v>0</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P39" s="3"/>
     </row>
@@ -4593,34 +4605,34 @@
         <v>0</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P40" s="2"/>
     </row>
@@ -4638,23 +4650,23 @@
         <v>0</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -4677,32 +4689,32 @@
         <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P42" s="2"/>
     </row>
@@ -4720,29 +4732,29 @@
         <v>0</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -4761,31 +4773,31 @@
         <v>0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -4804,32 +4816,32 @@
         <v>0</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P45" s="3"/>
     </row>
@@ -4847,31 +4859,31 @@
         <v>0</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -4890,34 +4902,34 @@
         <v>0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P47" s="3"/>
     </row>
@@ -4935,29 +4947,29 @@
         <v>0</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -4976,29 +4988,29 @@
         <v>0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
@@ -5017,35 +5029,35 @@
         <v>0</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5062,31 +5074,31 @@
         <v>0</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="I51" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
@@ -5105,26 +5117,26 @@
         <v>0</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -5146,23 +5158,23 @@
         <v>0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -5185,29 +5197,29 @@
         <v>0</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -5226,29 +5238,29 @@
         <v>1</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
@@ -5267,29 +5279,29 @@
         <v>0</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -5308,29 +5320,29 @@
         <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
@@ -5349,29 +5361,29 @@
         <v>0</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -5390,29 +5402,29 @@
         <v>0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
@@ -5431,23 +5443,23 @@
         <v>0</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -5470,29 +5482,29 @@
         <v>0</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
@@ -5511,29 +5523,29 @@
         <v>0</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -5552,29 +5564,29 @@
         <v>0</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
@@ -5593,23 +5605,23 @@
         <v>0</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -5632,23 +5644,23 @@
         <v>0</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -5671,31 +5683,31 @@
         <v>0</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -5714,31 +5726,31 @@
         <v>0</v>
       </c>
       <c r="D67" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H67" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="I67" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
@@ -5757,33 +5769,33 @@
         <v>0</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -5802,29 +5814,29 @@
         <v>0</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
@@ -5843,29 +5855,29 @@
         <v>0</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -5884,29 +5896,29 @@
         <v>0</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
@@ -5925,29 +5937,29 @@
         <v>0</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -5969,14 +5981,14 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -6002,14 +6014,14 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -6035,14 +6047,14 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -6065,29 +6077,29 @@
         <v>0</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -6106,23 +6118,23 @@
         <v>0</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -6145,23 +6157,23 @@
         <v>0</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
@@ -6184,34 +6196,34 @@
         <v>0</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N79" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P79" s="3"/>
     </row>
@@ -6229,29 +6241,29 @@
         <v>0</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -6270,33 +6282,33 @@
         <v>0</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O81" s="3"/>
       <c r="P81" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6313,29 +6325,29 @@
         <v>0</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -6354,29 +6366,29 @@
         <v>0</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
@@ -6395,23 +6407,23 @@
         <v>0</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
@@ -6434,25 +6446,25 @@
         <v>0</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E85" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="H85" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>391</v>
-      </c>
       <c r="I85" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
@@ -6475,23 +6487,23 @@
         <v>0</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
@@ -6514,23 +6526,23 @@
         <v>0</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
@@ -6553,23 +6565,23 @@
         <v>0</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -6592,37 +6604,37 @@
         <v>0</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O89" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6639,25 +6651,25 @@
         <v>0</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
@@ -6680,23 +6692,23 @@
         <v>0</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
@@ -6719,29 +6731,29 @@
         <v>0</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -6760,31 +6772,31 @@
         <v>0</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
@@ -6803,23 +6815,23 @@
         <v>0</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
@@ -6842,33 +6854,33 @@
         <v>0</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O95" s="3"/>
       <c r="P95" s="3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6885,29 +6897,29 @@
         <v>0</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
       <c r="N96" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -6926,34 +6938,34 @@
         <v>0</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O97" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P97" s="3"/>
     </row>
@@ -6971,34 +6983,34 @@
         <v>0</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P98" s="2"/>
     </row>
@@ -7016,29 +7028,29 @@
         <v>0</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
@@ -7057,29 +7069,29 @@
         <v>0</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
       <c r="N100" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -7098,35 +7110,35 @@
         <v>0</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O101" s="3"/>
       <c r="P101" s="4" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7143,29 +7155,29 @@
         <v>0</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
       <c r="N102" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -7184,23 +7196,23 @@
         <v>0</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
@@ -7223,23 +7235,23 @@
         <v>0</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
@@ -7262,23 +7274,23 @@
         <v>0</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
@@ -7301,23 +7313,23 @@
         <v>0</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
@@ -7340,25 +7352,25 @@
         <v>0</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
@@ -7381,31 +7393,31 @@
         <v>0</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E108" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="H108" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>485</v>
-      </c>
       <c r="I108" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="N108" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
@@ -7424,32 +7436,32 @@
         <v>0</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="N109" s="3"/>
       <c r="O109" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="P109" s="3"/>
     </row>
@@ -7467,29 +7479,29 @@
         <v>0</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
       <c r="N110" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
@@ -7508,31 +7520,31 @@
         <v>0</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
       <c r="N111" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
@@ -7551,29 +7563,29 @@
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F112" s="2"/>
       <c r="G112" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
       <c r="N112" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
@@ -7592,23 +7604,23 @@
         <v>0</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
@@ -7631,23 +7643,23 @@
         <v>0</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
@@ -7670,34 +7682,34 @@
         <v>0</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O115" s="3" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="P115" s="3"/>
     </row>
@@ -7715,31 +7727,31 @@
         <v>0</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
       <c r="N116" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
@@ -7758,29 +7770,29 @@
         <v>0</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
@@ -7799,31 +7811,31 @@
         <v>0</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
       <c r="N118" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
@@ -7842,29 +7854,29 @@
         <v>0</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
       <c r="N119" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
@@ -7883,29 +7895,29 @@
         <v>0</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
       <c r="N120" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
@@ -7924,29 +7936,29 @@
         <v>0</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
       <c r="N121" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
@@ -7965,29 +7977,29 @@
         <v>0</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F122" s="2"/>
       <c r="G122" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
@@ -8006,34 +8018,34 @@
         <v>0</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
       <c r="M123" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N123" s="3" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="O123" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P123" s="3"/>
     </row>
@@ -8051,29 +8063,29 @@
         <v>0</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F124" s="2"/>
       <c r="G124" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
       <c r="N124" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
@@ -8092,29 +8104,29 @@
         <v>0</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
       <c r="N125" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
@@ -8133,37 +8145,37 @@
         <v>0</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F126" s="2"/>
       <c r="G126" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="P126" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8180,37 +8192,37 @@
         <v>0</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
       <c r="M127" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="N127" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O127" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="P127" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="N127" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O127" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="P127" s="3" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8227,37 +8239,37 @@
         <v>0</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="F128" s="2"/>
       <c r="G128" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8274,34 +8286,34 @@
         <v>0</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
       <c r="M129" s="3" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="N129" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O129" s="3" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="P129" s="3"/>
     </row>
@@ -8319,29 +8331,29 @@
         <v>0</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
       <c r="N130" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" s="2"/>
@@ -8360,29 +8372,29 @@
         <v>0</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
       <c r="N131" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="O131" s="3"/>
       <c r="P131" s="3"/>
@@ -8401,29 +8413,29 @@
         <v>0</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
       <c r="N132" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
@@ -8442,29 +8454,29 @@
         <v>0</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
       <c r="N133" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O133" s="3"/>
       <c r="P133" s="3"/>
@@ -8483,29 +8495,29 @@
         <v>0</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F134" s="2"/>
       <c r="G134" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
       <c r="N134" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
@@ -8524,29 +8536,29 @@
         <v>0</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
       <c r="N135" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O135" s="3"/>
       <c r="P135" s="3"/>
@@ -8565,29 +8577,29 @@
         <v>0</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="F136" s="2"/>
       <c r="G136" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
       <c r="N136" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
@@ -8606,29 +8618,29 @@
         <v>0</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
       <c r="N137" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O137" s="3"/>
       <c r="P137" s="3"/>
@@ -8647,29 +8659,29 @@
         <v>0</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F138" s="2"/>
       <c r="G138" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
       <c r="N138" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
@@ -8688,29 +8700,29 @@
         <v>0</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
       <c r="N139" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O139" s="3"/>
       <c r="P139" s="3"/>
@@ -8729,27 +8741,27 @@
         <v>0</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="F140" s="2"/>
       <c r="G140" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="I140" s="2"/>
       <c r="J140" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
       <c r="N140" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
@@ -8768,29 +8780,29 @@
         <v>0</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F141" s="3"/>
       <c r="G141" s="3" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
       <c r="N141" s="3" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="O141" s="3"/>
       <c r="P141" s="3"/>
@@ -8809,27 +8821,27 @@
         <v>0</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F142" s="2"/>
       <c r="G142" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="I142" s="2"/>
       <c r="J142" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
       <c r="N142" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -8848,23 +8860,23 @@
         <v>0</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="F143" s="3"/>
       <c r="G143" s="3" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
@@ -8887,34 +8899,34 @@
         <v>0</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P144" s="2"/>
     </row>
@@ -8932,31 +8944,31 @@
         <v>0</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="E145" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="H145" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="F145" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>637</v>
-      </c>
       <c r="I145" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
       <c r="N145" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O145" s="3"/>
       <c r="P145" s="3"/>
@@ -8975,29 +8987,29 @@
         <v>0</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F146" s="2"/>
       <c r="G146" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
       <c r="N146" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
@@ -9016,25 +9028,25 @@
         <v>0</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
@@ -9057,29 +9069,29 @@
         <v>0</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F148" s="2"/>
       <c r="G148" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
       <c r="N148" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
@@ -9098,25 +9110,25 @@
         <v>0</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
@@ -9139,25 +9151,25 @@
         <v>0</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="E150" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="H150" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>658</v>
-      </c>
       <c r="I150" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
@@ -9165,7 +9177,7 @@
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
       <c r="P150" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9182,29 +9194,29 @@
         <v>0</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="F151" s="3"/>
       <c r="G151" s="3" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J151" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
       <c r="N151" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O151" s="3"/>
       <c r="P151" s="3"/>
@@ -9223,37 +9235,37 @@
         <v>0</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F152" s="2"/>
       <c r="G152" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P152" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9270,25 +9282,25 @@
         <v>0</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J153" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
@@ -9311,25 +9323,25 @@
         <v>0</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E154" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="H154" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="F154" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>675</v>
-      </c>
       <c r="I154" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
@@ -9352,29 +9364,29 @@
         <v>0</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F155" s="3"/>
       <c r="G155" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J155" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
       <c r="N155" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O155" s="3"/>
       <c r="P155" s="3"/>
@@ -9393,23 +9405,23 @@
         <v>0</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F156" s="2"/>
       <c r="G156" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="2"/>
@@ -9432,29 +9444,29 @@
         <v>0</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F157" s="3"/>
       <c r="G157" s="3" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
       <c r="M157" s="3"/>
       <c r="N157" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
@@ -9473,25 +9485,25 @@
         <v>0</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
@@ -9514,29 +9526,29 @@
         <v>0</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="3" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
       <c r="M159" s="3"/>
       <c r="N159" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O159" s="3"/>
       <c r="P159" s="3"/>
@@ -9555,29 +9567,29 @@
         <v>0</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F160" s="2"/>
       <c r="G160" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
       <c r="N160" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
@@ -9596,29 +9608,29 @@
         <v>0</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F161" s="3"/>
       <c r="G161" s="3" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J161" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
       <c r="M161" s="3"/>
       <c r="N161" s="3" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="O161" s="3"/>
       <c r="P161" s="3"/>
@@ -9637,29 +9649,29 @@
         <v>0</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F162" s="2"/>
       <c r="G162" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
       <c r="N162" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
@@ -9678,31 +9690,31 @@
         <v>0</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J163" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
       <c r="M163" s="3"/>
       <c r="N163" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O163" s="3"/>
       <c r="P163" s="3"/>
@@ -9721,31 +9733,31 @@
         <v>0</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
       <c r="N164" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
@@ -9764,31 +9776,31 @@
         <v>0</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
       <c r="M165" s="3"/>
       <c r="N165" s="3" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="O165" s="3"/>
       <c r="P165" s="3"/>
@@ -9807,29 +9819,29 @@
         <v>0</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
       <c r="N166" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
@@ -9848,31 +9860,31 @@
         <v>0</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
       <c r="N167" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O167" s="3"/>
       <c r="P167" s="3"/>
@@ -9891,35 +9903,35 @@
         <v>0</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
       <c r="N168" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O168" s="2"/>
       <c r="P168" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9936,34 +9948,34 @@
         <v>0</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J169" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
       <c r="M169" s="3" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="N169" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O169" s="3" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="P169" s="3"/>
     </row>
@@ -9981,34 +9993,34 @@
         <v>0</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="F170" s="2"/>
       <c r="G170" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="2"/>
       <c r="M170" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O170" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="P170" s="2"/>
     </row>
@@ -10026,34 +10038,34 @@
         <v>0</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="F171" s="3"/>
       <c r="G171" s="3" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
       <c r="M171" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="N171" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O171" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="P171" s="3"/>
     </row>
@@ -10071,29 +10083,29 @@
         <v>0</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
       <c r="N172" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
@@ -10112,29 +10124,29 @@
         <v>0</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="3" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="I173" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
       <c r="N173" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O173" s="3"/>
       <c r="P173" s="3"/>
@@ -10153,29 +10165,29 @@
         <v>0</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="F174" s="2"/>
       <c r="G174" s="2" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
       <c r="N174" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O174" s="2"/>
       <c r="P174" s="2"/>
@@ -10194,29 +10206,29 @@
         <v>0</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="F175" s="3"/>
       <c r="G175" s="3" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
       <c r="N175" s="3" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="O175" s="3"/>
       <c r="P175" s="3"/>
@@ -10235,23 +10247,23 @@
         <v>0</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F176" s="2"/>
       <c r="G176" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
@@ -10274,29 +10286,29 @@
         <v>0</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F177" s="3"/>
       <c r="G177" s="3" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
       <c r="N177" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O177" s="3"/>
       <c r="P177" s="3"/>
@@ -10315,23 +10327,23 @@
         <v>0</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F178" s="2"/>
       <c r="G178" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="2"/>
@@ -10339,7 +10351,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
       <c r="P178" s="2" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10356,29 +10368,29 @@
         <v>0</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="F179" s="3"/>
       <c r="G179" s="3" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
       <c r="N179" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O179" s="3"/>
       <c r="P179" s="3"/>
@@ -10397,29 +10409,29 @@
         <v>0</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="F180" s="2"/>
       <c r="G180" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
       <c r="N180" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
@@ -10438,31 +10450,31 @@
         <v>0</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
       <c r="N181" s="3" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="O181" s="3"/>
       <c r="P181" s="3"/>
@@ -10481,31 +10493,31 @@
         <v>0</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="H182" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="F182" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="G182" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>798</v>
-      </c>
       <c r="I182" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
       <c r="N182" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
@@ -10524,31 +10536,31 @@
         <v>0</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J183" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
       <c r="N183" s="3" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="O183" s="3"/>
       <c r="P183" s="3"/>
@@ -10567,29 +10579,29 @@
         <v>0</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
       <c r="N184" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
@@ -10608,23 +10620,23 @@
         <v>0</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
@@ -10647,23 +10659,23 @@
         <v>0</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F186" s="2"/>
       <c r="G186" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="2"/>
@@ -10686,29 +10698,29 @@
         <v>0</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="F187" s="3"/>
       <c r="G187" s="3" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="I187" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
       <c r="N187" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O187" s="3"/>
       <c r="P187" s="3"/>
@@ -10727,29 +10739,29 @@
         <v>0</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
       <c r="N188" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
@@ -10768,25 +10780,25 @@
         <v>0</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
@@ -10794,7 +10806,7 @@
       <c r="N189" s="3"/>
       <c r="O189" s="3"/>
       <c r="P189" s="3" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10811,29 +10823,29 @@
         <v>0</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F190" s="2"/>
       <c r="G190" s="2" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
       <c r="N190" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
@@ -10852,31 +10864,31 @@
         <v>0</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
       <c r="M191" s="3"/>
       <c r="N191" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O191" s="3"/>
       <c r="P191" s="3"/>
@@ -10895,29 +10907,29 @@
         <v>0</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="F192" s="2"/>
       <c r="G192" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
       <c r="N192" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" s="2"/>
@@ -10936,37 +10948,37 @@
         <v>0</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
       <c r="M193" s="3" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="N193" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O193" s="3"/>
       <c r="P193" s="3" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10983,23 +10995,23 @@
         <v>0</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="F194" s="2"/>
       <c r="G194" s="2" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
@@ -11022,25 +11034,25 @@
         <v>0</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
@@ -11063,31 +11075,31 @@
         <v>0</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
       <c r="M196" s="2"/>
       <c r="N196" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O196" s="2"/>
       <c r="P196" s="2"/>
@@ -11106,23 +11118,23 @@
         <v>0</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="F197" s="3"/>
       <c r="G197" s="3" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
@@ -11145,33 +11157,33 @@
         <v>1</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="F198" s="2"/>
       <c r="G198" s="2" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K198" s="2"/>
       <c r="L198" s="2"/>
       <c r="M198" s="2"/>
       <c r="N198" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O198" s="2"/>
       <c r="P198" s="2" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11188,35 +11200,35 @@
         <v>0</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
       <c r="M199" s="3"/>
       <c r="N199" s="3" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="O199" s="3"/>
       <c r="P199" s="3" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11233,31 +11245,31 @@
         <v>0</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" s="2" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
       <c r="M200" s="2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="O200" s="2"/>
       <c r="P200" s="2"/>
